--- a/src/Skull-projections/Original Datasets/103 occip.xlsx
+++ b/src/Skull-projections/Original Datasets/103 occip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/Skull-projections/Original Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/src/Skull-projections/Original Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7D9B3C03-DACD-8649-AFFE-8AB8E5C44156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE619AEF-6ED6-8D43-A0F3-154D8E990FF9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{7D9B3C03-DACD-8649-AFFE-8AB8E5C44156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{236F4625-2BDC-C64C-8677-12D67DB0870A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23340" windowHeight="15540" xr2:uid="{D1ED2918-4D00-1049-9065-7BAF3C91BE26}"/>
+    <workbookView xWindow="2000" yWindow="5660" windowWidth="23340" windowHeight="15540" xr2:uid="{D1ED2918-4D00-1049-9065-7BAF3C91BE26}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H2" sqref="H2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,13 +584,13 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>97.326999999999998</v>
+        <v>96.768100000000004</v>
       </c>
       <c r="I2">
-        <v>-262.678</v>
+        <v>-255.87989999999999</v>
       </c>
       <c r="J2">
-        <v>223.8374</v>
+        <v>222.767</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -616,13 +616,13 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>82.0959</v>
+        <v>80.013800000000003</v>
       </c>
       <c r="I3">
-        <v>-147.0763</v>
+        <v>-140.08750000000001</v>
       </c>
       <c r="J3">
-        <v>228.2098</v>
+        <v>228.62799999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -648,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>73.056100000000001</v>
+        <v>72.945499999999996</v>
       </c>
       <c r="I4">
-        <v>-212.35659999999999</v>
+        <v>-205.2859</v>
       </c>
       <c r="J4">
-        <v>295.04410000000001</v>
+        <v>294.77229999999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
